--- a/collect_email_from_sites_py/file.xlsx
+++ b/collect_email_from_sites_py/file.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="1308" windowWidth="14808" windowHeight="8016" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="input" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="output" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -34,6 +34,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -45,12 +50,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -65,10 +85,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -371,15 +394,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col width="45.85546875" customWidth="1" min="2" max="2"/>
+    <col width="45.88671875" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -694,7 +717,21 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>http://taisu-tb.ru</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -705,24 +742,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col width="57.42578125" customWidth="1" min="2" max="2"/>
+    <col width="57.44140625" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>email</t>
         </is>
@@ -750,7 +787,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>admin@cargotravel.ru, info@cargotravel.ru</t>
+          <t>info@cargotravel.ru, admin@cargotravel.ru</t>
         </is>
       </c>
     </row>
@@ -790,7 +827,11 @@
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>info@aeroplan-msk.ru</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -999,6 +1040,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>inbox@taisu.ru</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
